--- a/Discharge/Discharge_2019/Discharge_Aug07.xlsx
+++ b/Discharge/Discharge_2019/Discharge_Aug07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/Discharge_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE225913-201C-FA47-8771-1E8082B0C578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F8488-395E-E44E-A641-AD039454FE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="18480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stn1" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>Station 4</t>
   </si>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1129,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1587,6 +1587,231 @@
       <c r="A28">
         <f>A26-A17</f>
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.2</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f>C17*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f>A31</f>
+        <v>0.2</v>
+      </c>
+      <c r="F31">
+        <f>SUM(E31:E40)</f>
+        <v>5.9794139999999997E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.25</v>
+      </c>
+      <c r="B32">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:C40" si="5">C18*2.54</f>
+        <v>5.0800000000000005E-2</v>
+      </c>
+      <c r="D32">
+        <f>(A32+(A33-A32)/2)</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E32">
+        <f>(D32-D31)*(B32)*C32</f>
+        <v>6.5151000000000022E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.3</v>
+      </c>
+      <c r="B33">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="5"/>
+        <v>0.10160000000000001</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D40" si="6">(A33+(A34-A33)/2)</f>
+        <v>0.32499999999999996</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:E40" si="7">(D33-D32)*(B33)*C33</f>
+        <v>8.6867999999999906E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.35</v>
+      </c>
+      <c r="B34">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="5"/>
+        <v>0.127</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>0.375</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="7"/>
+        <v>7.9629000000000082E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.4</v>
+      </c>
+      <c r="B35">
+        <v>5.1300000000000005E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="5"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="6"/>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="7"/>
+        <v>3.9090600000000043E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.45</v>
+      </c>
+      <c r="B36">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>0.20320000000000002</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="6"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="7"/>
+        <v>8.1076799999999893E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.5</v>
+      </c>
+      <c r="B37">
+        <v>5.1300000000000005E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="7"/>
+        <v>1.1075670000000011E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B38">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="7"/>
+        <v>1.3536929999999985E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.6</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>0.625</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.65</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2260,18 +2485,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2293,6 +2518,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6E659F-15BD-430D-AFBA-315B7A7BA767}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD273764-34C2-464A-941D-E8ADB1FBE5B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2306,12 +2539,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6E659F-15BD-430D-AFBA-315B7A7BA767}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>